--- a/php/form_data.xlsx
+++ b/php/form_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>craig@rockstarseo.net</t>
+  </si>
+  <si>
+    <t>srinathd2112@gmail.com</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +442,34 @@
         <v>4</v>
       </c>
       <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9"/>
+      <c r="B9">
+        <v>69856325689</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/php/form_data.xlsx
+++ b/php/form_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>craig@rockstarseo.net</t>
-  </si>
-  <si>
-    <t>srinathd2112@gmail.com</t>
-  </si>
-  <si>
-    <t>python</t>
   </si>
 </sst>
 </file>
@@ -375,7 +369,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,34 +436,6 @@
         <v>4</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9"/>
-      <c r="B9">
-        <v>69856325689</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
